--- a/Uploads/INSP IPC uploads/formations-insp.xlsx
+++ b/Uploads/INSP IPC uploads/formations-insp.xlsx
@@ -6750,7 +6750,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H3999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6858,51 +6858,51 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Partenaire responsable" prompt="Sélectionner le nom bref du partenaire responsable de la formation." sqref="G4 G6:G4000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Partenaire responsable" prompt="Sélectionner le nom bref du partenaire responsable de la formation." sqref="G5:G3999">
       <formula1>Parteners</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type de formation dispensée" prompt="Si le type ne figure pas dans la liste, s'il vous plaît taper son nom." sqref="J4:J4000">
-      <formula1>Types</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Indiquer le nombre de membres du personnel de l'établissement qui ont reçu cette formation (au moins 1)." promptTitle="Personnes formées" prompt="Le nombre de membres du personnel de l'établissement qui ont reçu cette formation (au moins 1)." sqref="K4:K4000">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" promptTitle="Nombre de jours de formation" prompt="Jours efficaces, non jours calendaires. Par exemple, pour indiquer deux jours de formation dispensée pendant cinq jours, entrez &quot;2&quot;." sqref="I4 I6:I4000">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" promptTitle="Nombre de jours de formation" prompt="Jours efficaces, non jours calendaires. Par exemple, pour indiquer deux jours de formation dispensée pendant cinq jours, entrez &quot;2&quot;." sqref="I5:I3999">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date inacceptable" error="Spécifiez s'il vous plaît une date ultérieure au 1er Janvier 2015." promptTitle="Date" prompt="La date à laquelle la formation a été complétée." sqref="H4:H4000">
-      <formula1>42005</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Région" prompt="Dans le menu, choisissez la région où se situe l'établissement (ou d'où viennent les personnes indépendentes)." sqref="A4:A4000">
-      <formula1>Regions</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Préfecture" prompt="Dans le menu, choisissez la préfecture où se situe l'établissement, ou d'où viennent les personnes indépendentes (choisissez d'abord la région)." sqref="B4:B4000">
-      <formula1>OFFSET(PrefectureKey,MATCH(A4,PrefectureRegions,0),0,COUNTIF(PrefectureRegions,A4), 1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sous-préfecture" prompt="Dans le menu, choisissez la sous-préfecture où se situe l'établissement, ou d'où viennent les personnes indépendents (choisissez d'abord la région et la préfecture)." sqref="C4:C4000">
-      <formula1>OFFSET(SubprefectureKey,MATCH(B4,SubprefecturePrefectures,0),0,COUNTIF(SubprefecturePrefectures,B4), 1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nom de l'établissement" prompt="Dans le menu, choisissez l'établissement (choisissez d'abord la région, préfecture, et sous-préfecture). Si les personnes formées sont des indépendantes, laisser cette colonne vide. Si l'établissement ne figure pas dans la list, SVP taper son nom." sqref="D4:D4000">
-      <formula1>OFFSET(FacilityKey,MATCH(C4,FacilitySubprefectures,0),0,COUNTIF(FacilitySubprefectures,C4), 1)</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numéro invalide" error="Spécifier le nombre total de personnel de l'établissement (au moins 1)." promptTitle="Total du personnel" prompt="Nombre de tout le personnel de l'établissement, y compris ceux qui ne l'ont pas été formés. Si les personnes formées sont des indépendantes, laisser cette colonne vide." sqref="E4 E6:E4000">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numéro invalide" error="Spécifier le nombre total de personnel de l'établissement (au moins 1)." promptTitle="Total du personnel" prompt="Nombre de tout le personnel de l'établissement, y compris ceux qui ne l'ont pas été formés. Si les personnes formées sont des indépendantes, laisser cette colonne vide." sqref="E5:E3999">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Spécifier &quot;o&quot; (&quot;oui&quot;) si cela est un établissement privé." promptTitle="Secteur" prompt="Indiquer si les personnes formées sont affiliés à un établissement saintaire public, un établissement privé, ou fonctionnantes indépendamment." sqref="F4:F4000">
-      <formula1>"public,prive,independantes"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Partenaire responsable" prompt="Sélectionner le nom bref du partenaire responsable de la formation.  Si le partenaire est absent de la liste, ajoutez-le dans l'onglet &quot;Partenaires&quot;" sqref="G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Partenaire responsable" prompt="Sélectionner le nom bref du partenaire responsable de la formation.  Si le partenaire est absent de la liste, ajoutez-le dans l'onglet &quot;Partenaires&quot;" sqref="G4">
       <formula1>Parteners</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numéro invalide" error="Spécifier le nombre total de personnel de l'établissement (au moins 1)." promptTitle="Total du personnel" prompt="Nombre de tout le personnel de l'établissement, y compris ceux qui n'ont pas été formés." sqref="E5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numéro invalide" error="Spécifier le nombre total de personnel de l'établissement (au moins 1)." promptTitle="Total du personnel" prompt="Nombre de tout le personnel de l'établissement, y compris ceux qui n'ont pas été formés." sqref="E4">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" promptTitle="Nombre de jours de formation" prompt="Jours efficaces, non pas les jours calendriers. Par exemple, pour indiquer deux jours de formation dispensée pendant cinq jours, entrez &quot;2&quot;." sqref="I5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" promptTitle="Nombre de jours de formation" prompt="Jours efficaces, non pas les jours calendriers. Par exemple, pour indiquer deux jours de formation dispensée pendant cinq jours, entrez &quot;2&quot;." sqref="I4">
       <formula1>1</formula1>
       <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type de formation dispensée" prompt="Si le type ne figure pas dans la liste, s'il vous plaît taper son nom." sqref="J4:J3999">
+      <formula1>Types</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Indiquer le nombre de membres du personnel de l'établissement qui ont reçu cette formation (au moins 1)." promptTitle="Personnes formées" prompt="Le nombre de membres du personnel de l'établissement qui ont reçu cette formation (au moins 1)." sqref="K4:K3999">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date inacceptable" error="Spécifiez s'il vous plaît une date ultérieure au 1er Janvier 2015." promptTitle="Date" prompt="La date à laquelle la formation a été complétée." sqref="H4:H3999">
+      <formula1>41640</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Région" prompt="Dans le menu, choisissez la région où se situe l'établissement (ou d'où viennent les personnes indépendentes)." sqref="A4:A3999">
+      <formula1>Regions</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Préfecture" prompt="Dans le menu, choisissez la préfecture où se situe l'établissement, ou d'où viennent les personnes indépendentes (choisissez d'abord la région)." sqref="B4:B3999">
+      <formula1>OFFSET(PrefectureKey,MATCH(A4,PrefectureRegions,0),0,COUNTIF(PrefectureRegions,A4), 1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sous-préfecture" prompt="Dans le menu, choisissez la sous-préfecture où se situe l'établissement, ou d'où viennent les personnes indépendents (choisissez d'abord la région et la préfecture)." sqref="C4:C3999">
+      <formula1>OFFSET(SubprefectureKey,MATCH(B4,SubprefecturePrefectures,0),0,COUNTIF(SubprefecturePrefectures,B4), 1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nom de l'établissement" prompt="Dans le menu, choisissez l'établissement (choisissez d'abord la région, préfecture, et sous-préfecture). Si les personnes formées sont des indépendantes, laisser cette colonne vide. Si l'établissement ne figure pas dans la list, SVP taper son nom." sqref="D4:D3999">
+      <formula1>OFFSET(FacilityKey,MATCH(C4,FacilitySubprefectures,0),0,COUNTIF(FacilitySubprefectures,C4), 1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valeur invalide" error="Spécifier &quot;o&quot; (&quot;oui&quot;) si cela est un établissement privé." promptTitle="Secteur" prompt="Indiquer si les personnes formées sont affiliés à un établissement saintaire public, un établissement privé, ou fonctionnantes indépendamment." sqref="F4:F3999">
+      <formula1>"public,prive,independantes"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
